--- a/Arquivos/logos.xlsx
+++ b/Arquivos/logos.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U354576\Documents\0001. JavaScript - Pablo\07. ALURA PRO\Projeto.01 - Curriculo Web\Imagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U354576\Documents\0001. JavaScript - Pablo\01. ALURA PRO\Projeto.01 - Curriculo Web\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E5FC112-D320-43A9-9C40-771DCA56306C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C18810-5965-4DFD-8B66-7E61B217AE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D57D605D-0A7F-4CA1-9C4B-B1ABF82032CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D57D605D-0A7F-4CA1-9C4B-B1ABF82032CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,15 +97,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -119,7 +120,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1447800" y="238125"/>
+          <a:off x="1371600" y="180975"/>
           <a:ext cx="7477125" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -381,6 +382,331 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Retângulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52B2488-76E1-4AB2-BFDE-7BD40E61F5CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3061607" y="190498"/>
+          <a:ext cx="7375071" cy="15757073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="031105"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>70011</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>149677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>188688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AAB209-0FA4-51BA-AD5A-8D784F3B1E78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix amt="50000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:saturation sat="0"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4919102" y="530677"/>
+          <a:ext cx="4015843" cy="5182511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="112500"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>81641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF0BD2D-0DBC-0EA6-512B-4A92CADB3879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:alphaModFix amt="50000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:saturation sat="0"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="19661" t="45183" r="17208" b="18697"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221925" y="11498034"/>
+          <a:ext cx="4713020" cy="3633107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="112500"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>340501</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>169183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272B54E4-E722-8C32-D937-C5C207879E1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:alphaModFix amt="50000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:saturation sat="0"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="35035" r="22285" b="35744"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4583456" y="7136039"/>
+          <a:ext cx="4351489" cy="2939144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="112500"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>68037</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>122466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>271434</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D78A63-0B49-B361-D924-FC180B386047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:saturation sat="0"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="36384" t="21004" r="9232" b="5583"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="14171484" y="864412"/>
+          <a:ext cx="3224895" cy="3265004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="112500"/>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -687,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1AF983-11BF-4EE6-932F-63BCFAA149AE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -700,4 +1026,23 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEDE106-4C52-4B26-9B0F-1E1263224766}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S61" sqref="S61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;12&amp;K008000Internal Use</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>